--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelsey\Desktop\project-folder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelsey\Desktop\Gender-Tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +49,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -58,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,17 +72,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B795"/>
+  <dimension ref="A1:B1160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="D420" sqref="D420"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A853" sqref="A853:A1160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6721,12 +6745,2932 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2">
         <v>42735</v>
       </c>
       <c r="B795" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A796" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B796" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="2">
+        <v>42737</v>
+      </c>
+      <c r="B797" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A798" s="2">
+        <v>42738</v>
+      </c>
+      <c r="B798" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A799" s="2">
+        <v>42739</v>
+      </c>
+      <c r="B799" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A800" s="2">
+        <v>42740</v>
+      </c>
+      <c r="B800" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A801" s="2">
+        <v>42741</v>
+      </c>
+      <c r="B801" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A802" s="2">
+        <v>42742</v>
+      </c>
+      <c r="B802" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A803" s="2">
+        <v>42743</v>
+      </c>
+      <c r="B803" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A804" s="2">
+        <v>42744</v>
+      </c>
+      <c r="B804" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A805" s="2">
+        <v>42745</v>
+      </c>
+      <c r="B805" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A806" s="2">
+        <v>42746</v>
+      </c>
+      <c r="B806" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A807" s="2">
+        <v>42747</v>
+      </c>
+      <c r="B807" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A808" s="2">
+        <v>42748</v>
+      </c>
+      <c r="B808" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A809" s="2">
+        <v>42749</v>
+      </c>
+      <c r="B809" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A810" s="2">
+        <v>42750</v>
+      </c>
+      <c r="B810" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A811" s="2">
+        <v>42751</v>
+      </c>
+      <c r="B811" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A812" s="2">
+        <v>42752</v>
+      </c>
+      <c r="B812" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A813" s="2">
+        <v>42753</v>
+      </c>
+      <c r="B813" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A814" s="2">
+        <v>42754</v>
+      </c>
+      <c r="B814" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A815" s="2">
+        <v>42755</v>
+      </c>
+      <c r="B815" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A816" s="2">
+        <v>42756</v>
+      </c>
+      <c r="B816" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A817" s="2">
+        <v>42757</v>
+      </c>
+      <c r="B817" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A818" s="2">
+        <v>42758</v>
+      </c>
+      <c r="B818" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A819" s="2">
+        <v>42759</v>
+      </c>
+      <c r="B819" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A820" s="2">
+        <v>42760</v>
+      </c>
+      <c r="B820" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A821" s="2">
+        <v>42761</v>
+      </c>
+      <c r="B821" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A822" s="2">
+        <v>42762</v>
+      </c>
+      <c r="B822" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A823" s="2">
+        <v>42763</v>
+      </c>
+      <c r="B823" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A824" s="2">
+        <v>42764</v>
+      </c>
+      <c r="B824" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A825" s="2">
+        <v>42765</v>
+      </c>
+      <c r="B825" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A826" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B826" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A827" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B827" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A828" s="2">
+        <v>42768</v>
+      </c>
+      <c r="B828" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A829" s="2">
+        <v>42769</v>
+      </c>
+      <c r="B829" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A830" s="2">
+        <v>42770</v>
+      </c>
+      <c r="B830" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A831" s="2">
+        <v>42771</v>
+      </c>
+      <c r="B831" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A832" s="2">
+        <v>42772</v>
+      </c>
+      <c r="B832" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A833" s="2">
+        <v>42773</v>
+      </c>
+      <c r="B833" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A834" s="2">
+        <v>42774</v>
+      </c>
+      <c r="B834" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A835" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B835" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A836" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B836" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A837" s="2">
+        <v>42777</v>
+      </c>
+      <c r="B837" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A838" s="2">
+        <v>42778</v>
+      </c>
+      <c r="B838" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A839" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B839" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A840" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B840" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A841" s="2">
+        <v>42781</v>
+      </c>
+      <c r="B841" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A842" s="2">
+        <v>42782</v>
+      </c>
+      <c r="B842" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A843" s="2">
+        <v>42783</v>
+      </c>
+      <c r="B843" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A844" s="2">
+        <v>42784</v>
+      </c>
+      <c r="B844" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A845" s="2">
+        <v>42785</v>
+      </c>
+      <c r="B845" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A846" s="2">
+        <v>42786</v>
+      </c>
+      <c r="B846" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A847" s="2">
+        <v>42787</v>
+      </c>
+      <c r="B847" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A848" s="2">
+        <v>42788</v>
+      </c>
+      <c r="B848" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A849" s="2">
+        <v>42789</v>
+      </c>
+      <c r="B849" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A850" s="2">
+        <v>42790</v>
+      </c>
+      <c r="B850" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A851" s="2">
+        <v>42791</v>
+      </c>
+      <c r="B851" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A852" s="2">
+        <v>42792</v>
+      </c>
+      <c r="B852" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A853" s="2">
+        <v>42793</v>
+      </c>
+      <c r="B853" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A854" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B854" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A855" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B855" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A856" s="2">
+        <v>42796</v>
+      </c>
+      <c r="B856" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A857" s="2">
+        <v>42797</v>
+      </c>
+      <c r="B857" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A858" s="2">
+        <v>42798</v>
+      </c>
+      <c r="B858" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A859" s="2">
+        <v>42799</v>
+      </c>
+      <c r="B859" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A860" s="2">
+        <v>42800</v>
+      </c>
+      <c r="B860" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A861" s="2">
+        <v>42801</v>
+      </c>
+      <c r="B861" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A862" s="2">
+        <v>42802</v>
+      </c>
+      <c r="B862" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A863" s="2">
+        <v>42803</v>
+      </c>
+      <c r="B863" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A864" s="2">
+        <v>42804</v>
+      </c>
+      <c r="B864" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A865" s="2">
+        <v>42805</v>
+      </c>
+      <c r="B865" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A866" s="2">
+        <v>42806</v>
+      </c>
+      <c r="B866" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A867" s="2">
+        <v>42807</v>
+      </c>
+      <c r="B867" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A868" s="2">
+        <v>42808</v>
+      </c>
+      <c r="B868" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A869" s="2">
+        <v>42809</v>
+      </c>
+      <c r="B869" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A870" s="2">
+        <v>42810</v>
+      </c>
+      <c r="B870" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A871" s="2">
+        <v>42811</v>
+      </c>
+      <c r="B871" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A872" s="2">
+        <v>42812</v>
+      </c>
+      <c r="B872" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A873" s="2">
+        <v>42813</v>
+      </c>
+      <c r="B873" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A874" s="2">
+        <v>42814</v>
+      </c>
+      <c r="B874" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A875" s="2">
+        <v>42815</v>
+      </c>
+      <c r="B875" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A876" s="2">
+        <v>42816</v>
+      </c>
+      <c r="B876" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A877" s="2">
+        <v>42817</v>
+      </c>
+      <c r="B877" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A878" s="2">
+        <v>42818</v>
+      </c>
+      <c r="B878" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A879" s="2">
+        <v>42819</v>
+      </c>
+      <c r="B879" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A880" s="2">
+        <v>42820</v>
+      </c>
+      <c r="B880" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A881" s="2">
+        <v>42821</v>
+      </c>
+      <c r="B881" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A882" s="2">
+        <v>42822</v>
+      </c>
+      <c r="B882" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A883" s="2">
+        <v>42823</v>
+      </c>
+      <c r="B883" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A884" s="2">
+        <v>42824</v>
+      </c>
+      <c r="B884" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A885" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B885" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A886" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B886" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A887" s="2">
+        <v>42827</v>
+      </c>
+      <c r="B887" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A888" s="2">
+        <v>42828</v>
+      </c>
+      <c r="B888" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A889" s="2">
+        <v>42829</v>
+      </c>
+      <c r="B889" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A890" s="2">
+        <v>42830</v>
+      </c>
+      <c r="B890" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A891" s="2">
+        <v>42831</v>
+      </c>
+      <c r="B891" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A892" s="2">
+        <v>42832</v>
+      </c>
+      <c r="B892" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A893" s="2">
+        <v>42833</v>
+      </c>
+      <c r="B893" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A894" s="2">
+        <v>42834</v>
+      </c>
+      <c r="B894" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A895" s="2">
+        <v>42835</v>
+      </c>
+      <c r="B895" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A896" s="2">
+        <v>42836</v>
+      </c>
+      <c r="B896" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A897" s="2">
+        <v>42837</v>
+      </c>
+      <c r="B897" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A898" s="2">
+        <v>42838</v>
+      </c>
+      <c r="B898" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A899" s="2">
+        <v>42839</v>
+      </c>
+      <c r="B899" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A900" s="2">
+        <v>42840</v>
+      </c>
+      <c r="B900" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A901" s="2">
+        <v>42841</v>
+      </c>
+      <c r="B901" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="2">
+        <v>42842</v>
+      </c>
+      <c r="B902" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A903" s="2">
+        <v>42843</v>
+      </c>
+      <c r="B903" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="2">
+        <v>42844</v>
+      </c>
+      <c r="B904" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A905" s="2">
+        <v>42845</v>
+      </c>
+      <c r="B905" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A906" s="2">
+        <v>42846</v>
+      </c>
+      <c r="B906" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A907" s="2">
+        <v>42847</v>
+      </c>
+      <c r="B907" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A908" s="2">
+        <v>42848</v>
+      </c>
+      <c r="B908" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A909" s="2">
+        <v>42849</v>
+      </c>
+      <c r="B909" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A910" s="2">
+        <v>42850</v>
+      </c>
+      <c r="B910" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A911" s="2">
+        <v>42851</v>
+      </c>
+      <c r="B911" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="2">
+        <v>42852</v>
+      </c>
+      <c r="B912" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="2">
+        <v>42853</v>
+      </c>
+      <c r="B913" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A914" s="2">
+        <v>42854</v>
+      </c>
+      <c r="B914" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B915" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A916" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B916" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A917" s="2">
+        <v>42857</v>
+      </c>
+      <c r="B917" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A918" s="2">
+        <v>42858</v>
+      </c>
+      <c r="B918" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A919" s="2">
+        <v>42859</v>
+      </c>
+      <c r="B919" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A920" s="2">
+        <v>42860</v>
+      </c>
+      <c r="B920" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A921" s="2">
+        <v>42861</v>
+      </c>
+      <c r="B921" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A922" s="2">
+        <v>42862</v>
+      </c>
+      <c r="B922" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A923" s="2">
+        <v>42863</v>
+      </c>
+      <c r="B923" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A924" s="2">
+        <v>42864</v>
+      </c>
+      <c r="B924" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A925" s="2">
+        <v>42865</v>
+      </c>
+      <c r="B925" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A926" s="2">
+        <v>42866</v>
+      </c>
+      <c r="B926" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A927" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B927" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A928" s="2">
+        <v>42868</v>
+      </c>
+      <c r="B928" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A929" s="2">
+        <v>42869</v>
+      </c>
+      <c r="B929" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A930" s="2">
+        <v>42870</v>
+      </c>
+      <c r="B930" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A931" s="2">
+        <v>42871</v>
+      </c>
+      <c r="B931" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A932" s="2">
+        <v>42872</v>
+      </c>
+      <c r="B932" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A933" s="2">
+        <v>42873</v>
+      </c>
+      <c r="B933" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A934" s="2">
+        <v>42874</v>
+      </c>
+      <c r="B934" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A935" s="2">
+        <v>42875</v>
+      </c>
+      <c r="B935" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A936" s="2">
+        <v>42876</v>
+      </c>
+      <c r="B936" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A937" s="2">
+        <v>42877</v>
+      </c>
+      <c r="B937" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A938" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B938" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A939" s="2">
+        <v>42879</v>
+      </c>
+      <c r="B939" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A940" s="2">
+        <v>42880</v>
+      </c>
+      <c r="B940" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A941" s="2">
+        <v>42881</v>
+      </c>
+      <c r="B941" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A942" s="2">
+        <v>42882</v>
+      </c>
+      <c r="B942" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A943" s="2">
+        <v>42883</v>
+      </c>
+      <c r="B943" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A944" s="2">
+        <v>42884</v>
+      </c>
+      <c r="B944" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A945" s="2">
+        <v>42885</v>
+      </c>
+      <c r="B945" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A946" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B946" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A947" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B947" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A948" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B948" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A949" s="2">
+        <v>42889</v>
+      </c>
+      <c r="B949" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A950" s="2">
+        <v>42890</v>
+      </c>
+      <c r="B950" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A951" s="2">
+        <v>42891</v>
+      </c>
+      <c r="B951" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A952" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B952" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A953" s="2">
+        <v>42893</v>
+      </c>
+      <c r="B953" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A954" s="2">
+        <v>42894</v>
+      </c>
+      <c r="B954" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A955" s="2">
+        <v>42895</v>
+      </c>
+      <c r="B955" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A956" s="2">
+        <v>42896</v>
+      </c>
+      <c r="B956" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="2">
+        <v>42897</v>
+      </c>
+      <c r="B957" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A958" s="2">
+        <v>42898</v>
+      </c>
+      <c r="B958" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A959" s="2">
+        <v>42899</v>
+      </c>
+      <c r="B959" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A960" s="2">
+        <v>42900</v>
+      </c>
+      <c r="B960" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A961" s="2">
+        <v>42901</v>
+      </c>
+      <c r="B961" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B962" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A963" s="2">
+        <v>42903</v>
+      </c>
+      <c r="B963" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="2">
+        <v>42904</v>
+      </c>
+      <c r="B964" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A965" s="2">
+        <v>42905</v>
+      </c>
+      <c r="B965" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A966" s="2">
+        <v>42906</v>
+      </c>
+      <c r="B966" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A967" s="2">
+        <v>42907</v>
+      </c>
+      <c r="B967" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A968" s="2">
+        <v>42908</v>
+      </c>
+      <c r="B968" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="2">
+        <v>42909</v>
+      </c>
+      <c r="B969" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="2">
+        <v>42910</v>
+      </c>
+      <c r="B970" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="2">
+        <v>42911</v>
+      </c>
+      <c r="B971" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="2">
+        <v>42912</v>
+      </c>
+      <c r="B972" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B973" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="2">
+        <v>42914</v>
+      </c>
+      <c r="B974" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="2">
+        <v>42915</v>
+      </c>
+      <c r="B975" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B976" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B977" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="2">
+        <v>42918</v>
+      </c>
+      <c r="B978" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="2">
+        <v>42919</v>
+      </c>
+      <c r="B979" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="2">
+        <v>42920</v>
+      </c>
+      <c r="B980" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="2">
+        <v>42921</v>
+      </c>
+      <c r="B981" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="2">
+        <v>42922</v>
+      </c>
+      <c r="B982" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="2">
+        <v>42923</v>
+      </c>
+      <c r="B983" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="2">
+        <v>42924</v>
+      </c>
+      <c r="B984" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="2">
+        <v>42925</v>
+      </c>
+      <c r="B985" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="2">
+        <v>42926</v>
+      </c>
+      <c r="B986" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A987" s="2">
+        <v>42927</v>
+      </c>
+      <c r="B987" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A988" s="2">
+        <v>42928</v>
+      </c>
+      <c r="B988" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A989" s="2">
+        <v>42929</v>
+      </c>
+      <c r="B989" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A990" s="2">
+        <v>42930</v>
+      </c>
+      <c r="B990" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A991" s="2">
+        <v>42931</v>
+      </c>
+      <c r="B991" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A992" s="2">
+        <v>42932</v>
+      </c>
+      <c r="B992" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A993" s="2">
+        <v>42933</v>
+      </c>
+      <c r="B993" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A994" s="2">
+        <v>42934</v>
+      </c>
+      <c r="B994" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A995" s="2">
+        <v>42935</v>
+      </c>
+      <c r="B995" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A996" s="2">
+        <v>42936</v>
+      </c>
+      <c r="B996" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A997" s="2">
+        <v>42937</v>
+      </c>
+      <c r="B997" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A998" s="2">
+        <v>42938</v>
+      </c>
+      <c r="B998" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A999" s="2">
+        <v>42939</v>
+      </c>
+      <c r="B999" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="2">
+        <v>42940</v>
+      </c>
+      <c r="B1000" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="2">
+        <v>42941</v>
+      </c>
+      <c r="B1001" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="2">
+        <v>42942</v>
+      </c>
+      <c r="B1002" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1003" s="2">
+        <v>42943</v>
+      </c>
+      <c r="B1003" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1004" s="2">
+        <v>42944</v>
+      </c>
+      <c r="B1004" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1005" s="2">
+        <v>42945</v>
+      </c>
+      <c r="B1005" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1006" s="2">
+        <v>42946</v>
+      </c>
+      <c r="B1006" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1007" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B1007" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1008" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B1008" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1009" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B1009" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1010" s="2">
+        <v>42950</v>
+      </c>
+      <c r="B1010" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1011" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B1011" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1012" s="2">
+        <v>42952</v>
+      </c>
+      <c r="B1012" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1013" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B1013" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1014" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B1014" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1015" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B1015" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1016" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B1016" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1017" s="2">
+        <v>42957</v>
+      </c>
+      <c r="B1017" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1018" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B1018" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1019" s="2">
+        <v>42959</v>
+      </c>
+      <c r="B1019" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1020" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B1020" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1021" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B1021" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1022" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B1022" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1023" s="2">
+        <v>42963</v>
+      </c>
+      <c r="B1023" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1024" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B1024" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1025" s="2">
+        <v>42965</v>
+      </c>
+      <c r="B1025" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1026" s="2">
+        <v>42966</v>
+      </c>
+      <c r="B1026" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1027" s="2">
+        <v>42967</v>
+      </c>
+      <c r="B1027" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1028" s="2">
+        <v>42968</v>
+      </c>
+      <c r="B1028" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1029" s="2">
+        <v>42969</v>
+      </c>
+      <c r="B1029" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1030" s="2">
+        <v>42970</v>
+      </c>
+      <c r="B1030" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1031" s="2">
+        <v>42971</v>
+      </c>
+      <c r="B1031" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1032" s="2">
+        <v>42972</v>
+      </c>
+      <c r="B1032" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1033" s="2">
+        <v>42973</v>
+      </c>
+      <c r="B1033" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1034" s="2">
+        <v>42974</v>
+      </c>
+      <c r="B1034" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1035" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B1035" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1036" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B1036" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1037" s="2">
+        <v>42977</v>
+      </c>
+      <c r="B1037" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1038" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B1038" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1039" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B1039" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1040" s="2">
+        <v>42980</v>
+      </c>
+      <c r="B1040" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1041" s="2">
+        <v>42981</v>
+      </c>
+      <c r="B1041" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1042" s="2">
+        <v>42982</v>
+      </c>
+      <c r="B1042" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1043" s="2">
+        <v>42983</v>
+      </c>
+      <c r="B1043" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1044" s="2">
+        <v>42984</v>
+      </c>
+      <c r="B1044" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1045" s="2">
+        <v>42985</v>
+      </c>
+      <c r="B1045" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1046" s="2">
+        <v>42986</v>
+      </c>
+      <c r="B1046" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1047" s="2">
+        <v>42987</v>
+      </c>
+      <c r="B1047" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="2">
+        <v>42988</v>
+      </c>
+      <c r="B1048" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="2">
+        <v>42989</v>
+      </c>
+      <c r="B1049" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="2">
+        <v>42990</v>
+      </c>
+      <c r="B1050" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="2">
+        <v>42991</v>
+      </c>
+      <c r="B1051" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="2">
+        <v>42992</v>
+      </c>
+      <c r="B1052" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="2">
+        <v>42993</v>
+      </c>
+      <c r="B1053" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="2">
+        <v>42994</v>
+      </c>
+      <c r="B1054" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="2">
+        <v>42995</v>
+      </c>
+      <c r="B1055" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="2">
+        <v>42996</v>
+      </c>
+      <c r="B1056" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="2">
+        <v>42997</v>
+      </c>
+      <c r="B1057" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="2">
+        <v>42998</v>
+      </c>
+      <c r="B1058" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="2">
+        <v>42999</v>
+      </c>
+      <c r="B1059" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="2">
+        <v>43000</v>
+      </c>
+      <c r="B1060" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="2">
+        <v>43001</v>
+      </c>
+      <c r="B1061" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="2">
+        <v>43002</v>
+      </c>
+      <c r="B1062" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="2">
+        <v>43003</v>
+      </c>
+      <c r="B1063" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="2">
+        <v>43004</v>
+      </c>
+      <c r="B1064" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B1065" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="2">
+        <v>43006</v>
+      </c>
+      <c r="B1066" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="2">
+        <v>43007</v>
+      </c>
+      <c r="B1067" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B1068" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B1069" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="2">
+        <v>43010</v>
+      </c>
+      <c r="B1070" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="2">
+        <v>43011</v>
+      </c>
+      <c r="B1071" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1072" s="2">
+        <v>43012</v>
+      </c>
+      <c r="B1072" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1073" s="2">
+        <v>43013</v>
+      </c>
+      <c r="B1073" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1074" s="2">
+        <v>43014</v>
+      </c>
+      <c r="B1074" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1075" s="2">
+        <v>43015</v>
+      </c>
+      <c r="B1075" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1076" s="2">
+        <v>43016</v>
+      </c>
+      <c r="B1076" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1077" s="2">
+        <v>43017</v>
+      </c>
+      <c r="B1077" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1078" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B1078" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1079" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B1079" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1080" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B1080" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1081" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B1081" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1082" s="2">
+        <v>43022</v>
+      </c>
+      <c r="B1082" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1083" s="2">
+        <v>43023</v>
+      </c>
+      <c r="B1083" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1084" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B1084" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1085" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B1085" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1086" s="2">
+        <v>43026</v>
+      </c>
+      <c r="B1086" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1087" s="2">
+        <v>43027</v>
+      </c>
+      <c r="B1087" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1088" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B1088" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1089" s="2">
+        <v>43029</v>
+      </c>
+      <c r="B1089" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1090" s="2">
+        <v>43030</v>
+      </c>
+      <c r="B1090" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1091" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B1091" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1092" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B1092" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1093" s="2">
+        <v>43033</v>
+      </c>
+      <c r="B1093" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1094" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B1094" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1095" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B1095" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1096" s="2">
+        <v>43036</v>
+      </c>
+      <c r="B1096" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1097" s="2">
+        <v>43037</v>
+      </c>
+      <c r="B1097" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1098" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B1098" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1099" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B1099" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1100" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B1100" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1101" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B1101" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1102" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B1102" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1103" s="2">
+        <v>43043</v>
+      </c>
+      <c r="B1103" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1104" s="2">
+        <v>43044</v>
+      </c>
+      <c r="B1104" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1105" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B1105" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1106" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B1106" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1107" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B1107" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1108" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B1108" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1109" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B1109" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1110" s="2">
+        <v>43050</v>
+      </c>
+      <c r="B1110" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1111" s="2">
+        <v>43051</v>
+      </c>
+      <c r="B1111" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1112" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B1112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1113" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B1113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1114" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B1114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1115" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B1115" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1116" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B1116" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1117" s="2">
+        <v>43057</v>
+      </c>
+      <c r="B1117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1118" s="2">
+        <v>43058</v>
+      </c>
+      <c r="B1118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1119" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B1119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1120" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B1120" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1121" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B1121" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1122" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B1122" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1123" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B1123" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1124" s="2">
+        <v>43064</v>
+      </c>
+      <c r="B1124" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1125" s="2">
+        <v>43065</v>
+      </c>
+      <c r="B1125" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1126" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B1126" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1127" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B1127" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1128" s="2">
+        <v>43068</v>
+      </c>
+      <c r="B1128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1129" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B1129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1130" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B1130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1131" s="2">
+        <v>43071</v>
+      </c>
+      <c r="B1131" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1132" s="2">
+        <v>43072</v>
+      </c>
+      <c r="B1132" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1133" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B1133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1134" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B1134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1135" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B1135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1136" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B1136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1137" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B1137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1138" s="2">
+        <v>43078</v>
+      </c>
+      <c r="B1138" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1139" s="2">
+        <v>43079</v>
+      </c>
+      <c r="B1139" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1140" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B1140" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1141" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B1141" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1142" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B1142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1143" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B1143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1144" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B1144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1145" s="2">
+        <v>43085</v>
+      </c>
+      <c r="B1145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1146" s="2">
+        <v>43086</v>
+      </c>
+      <c r="B1146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1147" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B1147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1148" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B1148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1149" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B1149" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1150" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B1150" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1151" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B1151" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1152" s="2">
+        <v>43092</v>
+      </c>
+      <c r="B1152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1153" s="2">
+        <v>43093</v>
+      </c>
+      <c r="B1153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1154" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B1154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1155" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B1155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1156" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B1156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1157" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B1157" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1158" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B1158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1159" s="2">
+        <v>43099</v>
+      </c>
+      <c r="B1159" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1160" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B1160" s="3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
